--- a/PMIS/RIC Register.xlsx
+++ b/PMIS/RIC Register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ca01c0acc71d382/Documents/Uni/Year 3/Group Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D1CEABA-50BD-47A4-A0A7-AEDC47700C76}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-3105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RICs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,57 @@
   </si>
   <si>
     <t>Closure Date</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>The data, planning, and execution information associated with the project leaked due to inadequate security.</t>
+  </si>
+  <si>
+    <t>Very Low</t>
+  </si>
+  <si>
+    <t>Project completion delayed due to lack of time management in team members.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Have team report progress regularly and provide means to report issues.</t>
+  </si>
+  <si>
+    <t>Project completion delayed due to loss of team members from the project.</t>
+  </si>
+  <si>
+    <t>Give team members means to report personal issues and give support in response.</t>
+  </si>
+  <si>
+    <t>Loss of project progress due to inadequate frequency/quality of backups.</t>
+  </si>
+  <si>
+    <t>Take all appropraite steps to make sure all sensitive material is protected with strong security measures.</t>
+  </si>
+  <si>
+    <t>Use version control systems such as GitHub to store progress securely.</t>
+  </si>
+  <si>
+    <t>Progress slowed due to unclear or messy code, requiring explanation.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>All team members required to adhere to best coding practices. Use of such things as correct indentation, code comments, and white space.</t>
+  </si>
+  <si>
+    <t>Progress slowed due to merge conflicts in the VCS.</t>
+  </si>
+  <si>
+    <t>All team members should work on feature branches when coding, and merges to the development branch should be coordinated.</t>
+  </si>
+  <si>
+    <t>Lewis Green</t>
   </si>
 </sst>
 </file>
@@ -465,7 +516,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,49 +566,187 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="8"/>
-      <c r="G2" s="9" t="str">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8">
+        <v>43854</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9">
         <f>IF(C2="","",IF(C2="Risk",IF(F2="Very High",80%,IF(F2="High",65%,IF(F2="Medium",50%,IF(F2="Low",30%,IF(F2="Very Low",10%,NA())))))*E2,E2))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-      <c r="G3" s="9" t="str">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43854</v>
+      </c>
+      <c r="E3" s="7">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9">
         <f t="shared" ref="G3:G66" si="0">IF(C3="","",IF(C3="Risk",IF(F3="Very High",80%,IF(F3="High",65%,IF(F3="Medium",50%,IF(F3="Low",30%,IF(F3="Very Low",10%,NA())))))*E3,E3))</f>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="G4" s="9" t="str">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>43854</v>
+      </c>
+      <c r="E4" s="7">
+        <v>80</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="8"/>
-      <c r="G5" s="9" t="str">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>43854</v>
+      </c>
+      <c r="E5" s="7">
+        <v>90</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="8"/>
-      <c r="G6" s="9" t="str">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8">
+        <v>43854</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="8"/>
-      <c r="G7" s="9" t="str">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>43854</v>
+      </c>
+      <c r="E7" s="7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">

--- a/PMIS/RIC Register.xlsx
+++ b/PMIS/RIC Register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D1CEABA-50BD-47A4-A0A7-AEDC47700C76}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C95EBC2D-8550-494C-8039-F9E19C9A9189}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RICs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Loss of project progress due to inadequate frequency/quality of backups.</t>
   </si>
   <si>
-    <t>Take all appropraite steps to make sure all sensitive material is protected with strong security measures.</t>
-  </si>
-  <si>
-    <t>Use version control systems such as GitHub to store progress securely.</t>
-  </si>
-  <si>
     <t>Progress slowed due to unclear or messy code, requiring explanation.</t>
   </si>
   <si>
@@ -112,6 +106,69 @@
   </si>
   <si>
     <t>Lewis Green</t>
+  </si>
+  <si>
+    <t>Take all appropriate steps to make sure all sensitive material is protected with strong security measures.</t>
+  </si>
+  <si>
+    <t>Use version control systems such as GitHub and BitBucket to store progress securely.</t>
+  </si>
+  <si>
+    <t>Team loses focus on task due to other commitments.</t>
+  </si>
+  <si>
+    <t>A structure is made with the need for time spent with other commitments in mind.</t>
+  </si>
+  <si>
+    <t>Team members time is spent trying to achieve the wrong thing.</t>
+  </si>
+  <si>
+    <t>Regular team meetings and open communication channels allow team members to course correct should they start doing the wrong thing.</t>
+  </si>
+  <si>
+    <t>Nuvven requests more features, stressing team members and extending required development time past what is possible.</t>
+  </si>
+  <si>
+    <t>Use the agreed list of requirements prioritised with MoSCoW as a negotiation tool to either deny these changes or replace work. Make Nuvven aware that these changes will slow progress and make other backlog items less likely to be completed.</t>
+  </si>
+  <si>
+    <t>Nuvven does not approve of prototypes at end of sprint, meaning the team will have to spend time fixing these problems.</t>
+  </si>
+  <si>
+    <t>Weekends can be used as overflow time, to fix any unexpected issues. Nuvven's expectations will be clearly defined in meetings to manage this problem.</t>
+  </si>
+  <si>
+    <t>Nuvven does not provide access to their database due to issues on their end. This slows down development on team's end.</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Affected team members will do what relevant work they can and then turn their attention to other areas that they can do work on. This issue will close once Nuvven's API Gateway is fixed.</t>
+  </si>
+  <si>
+    <t>Nuvven does not approve of Component Library used for UI design.</t>
+  </si>
+  <si>
+    <t>An argument will be made for the use of this library if needed. If not approved after discussion, an alternative will be found.</t>
+  </si>
+  <si>
+    <t>Nuvven does not approve of other APIs/Libraries used for development.</t>
+  </si>
+  <si>
+    <t>Arguments will be made for the use of these, if not approved alternatives will be found in advance so no new research is needed.</t>
+  </si>
+  <si>
+    <t>Nuvven's database which we work with could be subject to future difficulties, which will slow down the team's progress.</t>
+  </si>
+  <si>
+    <t>PM will request a separate database for development use for the team. This would only be updated with secure updates.</t>
+  </si>
+  <si>
+    <t>This mobile app is to be cross platform. The team has a lack of iOS devices to test the app on, which could mean the app will not work correctly on iOS devices.</t>
+  </si>
+  <si>
+    <t>Requests for iOS devices will be made to both Nuvven and to Napier contacts.</t>
   </si>
 </sst>
 </file>
@@ -515,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -624,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -655,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -682,10 +739,10 @@
         <v>27</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -693,7 +750,7 @@
         <v>1005</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -702,20 +759,20 @@
         <v>43854</v>
       </c>
       <c r="E6" s="7">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -724,7 +781,7 @@
         <v>1006</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>
@@ -736,72 +793,287 @@
         <v>20</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="G8" s="9" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43866</v>
+      </c>
+      <c r="E8" s="7">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G9" s="9" t="str">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43866</v>
+      </c>
+      <c r="E9" s="7">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="9" t="str">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>43874</v>
+      </c>
+      <c r="E10" s="7">
+        <v>70</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="9" t="str">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="8">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
+        <v>43878</v>
+      </c>
+      <c r="E11" s="7">
+        <v>70</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="9" t="str">
+        <v>35</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8">
+        <v>43879</v>
+      </c>
+      <c r="E12" s="7">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="9" t="str">
+        <v>24</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8">
+        <v>43879</v>
+      </c>
+      <c r="E13" s="7">
+        <v>80</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="9" t="str">
+        <v>80</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8">
+        <v>43879</v>
+      </c>
+      <c r="E14" s="7">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="9" t="str">
+        <v>18</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
+        <v>43880</v>
+      </c>
+      <c r="E15" s="7">
+        <v>80</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="9" t="str">
+        <v>40</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
+        <v>43880</v>
+      </c>
+      <c r="E16" s="7">
+        <v>70</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>21</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">

--- a/PMIS/RIC Register.xlsx
+++ b/PMIS/RIC Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C95EBC2D-8550-494C-8039-F9E19C9A9189}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C4601C8C-A1B5-4CEC-AE18-C11DBB43EA7B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Requests for iOS devices will be made to both Nuvven and to Napier contacts.</t>
+  </si>
+  <si>
+    <t>Nuvven UI designer is responsible for supplying us with their desired look for each screen. Any delay in this will slow the team's work.</t>
+  </si>
+  <si>
+    <t>We will continue to request these screens on a regular basis, and make plans that allow team members to do work without these.</t>
   </si>
 </sst>
 </file>
@@ -573,7 +579,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,97 +1082,121 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="9" t="str">
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8">
+        <v>43885</v>
+      </c>
+      <c r="E17" s="7">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/PMIS/RIC Register.xlsx
+++ b/PMIS/RIC Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C4601C8C-A1B5-4CEC-AE18-C11DBB43EA7B}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B6E15FE-4A2F-4F20-BB86-DFC1DF68C223}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>We will continue to request these screens on a regular basis, and make plans that allow team members to do work without these.</t>
+  </si>
+  <si>
+    <t>One team member away for the duration of sprint 2. Work may not be completed.</t>
+  </si>
+  <si>
+    <t>Away team member will do their best to complete assigned work and will collaborate with other team members to work around this.</t>
   </si>
 </sst>
 </file>
@@ -578,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,10 +1118,34 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="9" t="str">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8">
+        <v>43885</v>
+      </c>
+      <c r="E18" s="7">
+        <v>60</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">

--- a/PMIS/RIC Register.xlsx
+++ b/PMIS/RIC Register.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\Live Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B6E15FE-4A2F-4F20-BB86-DFC1DF68C223}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{02C86509-EF19-4CBE-9FF1-52C2C5A30B47}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Away team member will do their best to complete assigned work and will collaborate with other team members to work around this.</t>
+  </si>
+  <si>
+    <t>Nuvven does not have all backend components ready, slowing down the teams progress. This may also increase the expected workload of the team.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Additional work will be deflected as team does not have time to finish assigned work and complete backend API work.</t>
   </si>
 </sst>
 </file>
@@ -584,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,8 +1096,11 @@
       <c r="I16" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J16" s="8">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1016</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1017</v>
       </c>
@@ -1147,86 +1159,113 @@
       <c r="I18" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="9" t="str">
+      <c r="J18" s="8">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8">
+        <v>43897</v>
+      </c>
+      <c r="E19" s="7">
+        <v>70</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45.5</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/PMIS/RIC Register.xlsx
+++ b/PMIS/RIC Register.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive\Documents\Uni\Year 3\Group Project\PMIS\Live Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ca01c0acc71d382/Documents/Uni/Year 3/Group Project/PMIS/Live Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{02C86509-EF19-4CBE-9FF1-52C2C5A30B47}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{36A3240F-55D0-4AB7-832A-C00AF8DB2E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8470E81B-1124-4D1A-B678-89FF0C592378}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Additional work will be deflected as team does not have time to finish assigned work and complete backend API work.</t>
+  </si>
+  <si>
+    <t>With the increased risk from Covid 19, team members are more likely to get sick and be unable to work.</t>
+  </si>
+  <si>
+    <t>Team members will take all appropriate measures to stay healthy, including proper handwashing and self-isolation.</t>
   </si>
 </sst>
 </file>
@@ -594,7 +600,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,6 +1042,9 @@
       <c r="I14" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="J14" s="8">
+        <v>43915</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1193,10 +1202,34 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="9" t="str">
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8">
+        <v>43913</v>
+      </c>
+      <c r="E20" s="7">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>25</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
